--- a/docs/PTA2_DDC_100/PTA2_DDC_100_08.08.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731788171.0424187</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731788173.903561</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731788171.0424187.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731788173.903561.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.53</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.24</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.2899999999999636</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731788175.2451508</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731788175.9833481</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731788175.2451508.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731788175.9833481.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.65</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.03</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731788176.8311684</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731788178.896176</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788176.8311684.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788178.896176.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.53</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283.24</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.2899999999999636</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731788179.8705688</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731788180.5068662</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788179.8705688.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788180.5068662.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.65</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.03</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731788182.5407238</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731788185.2459168</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788182.5407238.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788185.2459168.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>284.59</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>284.56</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.02999999999997272</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731788185.7258055</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731788188.248481</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788185.7258055.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788188.248481.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>284.01</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.64</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731788189.653593</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731788190.402925</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788189.653593.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788190.402925.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>284.1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.45</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.6500000000000341</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -903,43 +961,49 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731788191.099219</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731788191.099219.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731788191.099219.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>282.85</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>282.85</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731788194.677807</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731788195.5702357</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788194.677807.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788195.5702357.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>130.84</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>130.35</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.4900000000000091</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731788196.386499</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731788199.5190632</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788196.386499.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788199.5190632.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>129.92</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>129.73</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.1899999999999977</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731788202.7095826</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731788203.4168987</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788202.7095826.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788203.4168987.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6485.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6511.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>26</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731788205.3827257</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731788206.3357937</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788205.3827257.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788206.3357937.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6532</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6523.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>8.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731788208.0782452</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731788211.0876799</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788208.0782452.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788211.0876799.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6502.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6490</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-12.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731788213.7549202</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731788216.7725077</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788213.7549202.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788216.7725077.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>511.1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>511.4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.2999999999999545</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731788217.0634642</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731788219.8550646</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788217.0634642.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788219.8550646.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>511.05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>510.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731788221.5061994</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731788222.0919962</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788221.5061994.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788222.0919962.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>511.95</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>510.65</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1363,95 +1475,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731788222.4095993</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731788222.4095993.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731788222.4095993.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>509.75</v>
       </c>
-      <c r="J19" t="n">
-        <v>509.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>510.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4499999999999886</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731788223.828928</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731788227.1104164</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788223.828928.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788227.1104164.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>228.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>228.93</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.3300000000000125</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731788227.5224402</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731788228.056286</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788227.5224402.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788228.056286.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>228.58</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>229.35</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.7699999999999818</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731788228.742888</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731788230.9862688</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788228.742888.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788230.9862688.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>228.55</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>228.86</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731788232.9307063</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731788233.7038617</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788232.9307063.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788233.7038617.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>229.16</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>228.45</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.710000000000008</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731788235.5649407</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731788238.8510108</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788235.5649407.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788238.8510108.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1020.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1023.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-3</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731788239.1620922</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731788239.7391005</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788239.1620922.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788239.7391005.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1021.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1026</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>4.600000000000023</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731788240.8516364</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731788242.0936966</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788240.8516364.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788242.0936966.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1021.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1021.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1771,95 +1931,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731788244.2782474</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731788244.2782474.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731788244.2782474.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1024.4</v>
       </c>
-      <c r="J27" t="n">
-        <v>1024.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1024.2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731788245.731766</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731788246.0223837</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788245.731766.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788246.0223837.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.87</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>11.881</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731788246.5158377</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731788250.4992638</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788246.5158377.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788250.4992638.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.908</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.953</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.04499999999999993</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731788253.4289253</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731788254.168124</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788253.4289253.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788254.168124.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.928</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>11.935</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1971,95 +2155,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731788255.9556434</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731788255.9556434.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731788255.9556434.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.966</v>
       </c>
-      <c r="J31" t="n">
-        <v>11.966</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>11.969</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.003000000000000114</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731788259.5448575</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731788260.5793033</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788259.5448575.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788260.5793033.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>124.62</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>124.86</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731788260.8718128</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731788261.2560084</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788260.8718128.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788261.2560084.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>125.08</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>124.76</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731788261.4152622</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731788262.0293026</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788261.4152622.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788262.0293026.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>124.62</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>124.64</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731788262.223808</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731788264.7067728</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788262.223808.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788264.7067728.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>124.1</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>124.12</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731788267.5491595</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731788268.5586588</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788267.5491595.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788268.5586588.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>160.66</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>161.66</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731788270.93722</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731788271.962271</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788270.93722.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788271.962271.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>162.14</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>162.12</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.01999999999998181</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731788273.513884</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731788276.2756026</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788273.513884.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788276.2756026.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>161.36</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>161.3</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731788276.975617</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731788277.957161</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788276.975617.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788277.957161.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>161.74</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>161</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.7400000000000091</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731788279.037456</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731788279.3879004</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788279.037456.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788279.3879004.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>49.26</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>49.485</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.2250000000000014</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731788279.5801084</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731788282.2114532</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788279.5801084.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788282.2114532.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>49.745</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>49.505</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731788282.3995337</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731788282.9761062</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788282.3995337.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788282.9761062.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>49.45</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>49.495</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.0449999999999946</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731788283.8500082</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731788286.512642</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788283.8500082.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788286.512642.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>49.235</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>49.43</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1950000000000003</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731788287.7884932</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731788288.8339868</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788287.7884932.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788288.8339868.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>49.43</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>49.29</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731788290.493905</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731788293.394106</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788290.493905.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788293.394106.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1390.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1396.2</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-5.600000000000136</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731788294.9150126</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731788297.6290007</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788294.9150126.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788297.6290007.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1387</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1390.4</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>3.400000000000091</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2795,95 +3075,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731788297.9314597</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731788297.9314597.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731788297.9314597.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1394</v>
       </c>
-      <c r="J47" t="n">
-        <v>1394</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1390.4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.599999999999909</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731788303.925339</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731788304.901346</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788303.925339.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788304.901346.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>61.15</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>61.09</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.05999999999999517</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731788310.173404</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731788310.6981788</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788310.173404.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788310.6981788.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>61.03</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>60.72</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731788314.222931</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731788314.5143285</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788314.222931.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788314.5143285.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>98.19</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>98.5</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731788315.2141495</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731788318.957909</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788315.2141495.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788318.957909.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>98.06999999999999</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>97.86</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.2099999999999937</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731788323.2928517</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731788323.8173366</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788323.2928517.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788323.8173366.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>55.99</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>56.18</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731788325.0706756</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731788329.2158723</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788325.0706756.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788329.2158723.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>55.91</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>55.89</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731788331.642478</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731788337.3032873</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788331.642478.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788337.3032873.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>147.48</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>155.04</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-7.560000000000002</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-5.13</v>
       </c>
     </row>
@@ -3203,51 +3531,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731788338.7048924</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731788339.8619456</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788338.7048924.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788339.8619456.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>152.86</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>153.22</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.3599999999999852</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3255,51 +3589,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731788341.1643448</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731788341.716254</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788341.1643448.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788341.716254.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>154.98</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>153.52</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>1.45999999999998</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -3307,51 +3647,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731788346.8862538</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731788351.4391158</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788346.8862538.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788351.4391158.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>20.361</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>20.329</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.03200000000000003</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3359,51 +3705,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731788351.4883056</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731788352.237879</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788351.4883056.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788352.237879.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>20.379</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>20.321</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.05799999999999983</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3411,95 +3763,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731788352.416438</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731788352.416438.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731788352.416438.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>20.268</v>
       </c>
-      <c r="J59" t="n">
-        <v>20.268</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>20.161</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.1069999999999993</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731788356.286747</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731788356.8403177</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788356.286747.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788356.8403177.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>680</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>679.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3507,51 +3871,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731788358.6633646</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731788360.5443451</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788358.6633646.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731788360.5443451.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>677.35</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>678</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.6499999999999773</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3559,51 +3929,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731788363.4433181</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731788364.7422476</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788363.4433181.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788364.7422476.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>156.13</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>156.64</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -3611,51 +3987,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731788366.853708</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731788368.0922372</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788366.853708.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788368.0922372.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>157.83</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>156.46</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>1.370000000000005</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -3663,51 +4045,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731788369.4481494</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731788372.5340605</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788369.4481494.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788372.5340605.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>155.84</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>155.59</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3715,51 +4103,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731788372.6545599</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731788373.6535757</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788372.6545599.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788373.6535757.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>156.28</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>155.19</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.090000000000003</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -3767,51 +4161,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731788374.7750368</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731788375.4842207</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788374.7750368.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788375.4842207.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.09722000000000001</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.09748000000000001</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.0002599999999999963</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3819,51 +4219,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731788375.5639331</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731788378.529595</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788375.5639331.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788378.529595.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.098</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.09770000000000001</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.0002999999999999947</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3871,51 +4277,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731788380.790459</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731788382.81584</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788380.790459.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788382.81584.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.097</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.09772</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.0007199999999999984</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -3923,51 +4335,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731788385.1245508</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731788387.8545172</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788385.1245508.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788387.8545172.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>2949</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>2944.3</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>4.699999999999818</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3975,44 +4393,50 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731788388.0785875</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731788388.0785875.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731788388.0785875.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2940.1</v>
       </c>
-      <c r="J70" t="n">
-        <v>2940.1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>2941.35</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -4139,16 +4563,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02699999999999925</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.006749999999999812</v>
+        <v>-0.00749999999999984</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
       <c r="F5" t="n">
         <v>-0.06</v>
@@ -4161,19 +4585,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7500000000000568</v>
+        <v>1.200000000000045</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1875000000000142</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="E6" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -4183,16 +4607,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.600000000000023</v>
+        <v>1.800000000000068</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.4500000000000171</v>
       </c>
       <c r="E7" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F7" t="n">
         <v>0.04</v>
@@ -4293,19 +4717,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0259999999999998</v>
+        <v>-0.08099999999999952</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0086666666666666</v>
+        <v>-0.02699999999999984</v>
       </c>
       <c r="E12" t="n">
-        <v>0.12</v>
+        <v>-0.41</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="13">
@@ -4359,19 +4783,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.200000000000045</v>
+        <v>1.399999999999864</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7333333333333485</v>
+        <v>0.4666666666666212</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.15</v>
+        <v>0.11</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
@@ -4447,19 +4871,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.699999999999818</v>
+        <v>5.949999999999818</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>2.349999999999909</v>
+        <v>2.974999999999909</v>
       </c>
       <c r="E19" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
